--- a/!Sample_files/report/120801_report.xlsx
+++ b/!Sample_files/report/120801_report.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17235" windowHeight="8955"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19395" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="62">
   <si>
     <t>File</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Fixed?</t>
   </si>
   <si>
-    <t>C:/Users/Administrator/Desktop/hiatus/__sample/!b</t>
+    <t>C:/Users/Administrator/Desktop/hiatus/_sample/!bi</t>
   </si>
   <si>
     <t>Found in the Target</t>
@@ -67,9 +67,18 @@
     <t>This message contains important information about your Foo appliance, including initial setup information, and how to schedule your Foo JumpStart:</t>
   </si>
   <si>
+    <t>Glossary</t>
+  </si>
+  <si>
     <t>* Identify a 1u rack space for the unit in your data center (the unit is too loud to place in a regular work environment)</t>
   </si>
   <si>
+    <t>data center</t>
+  </si>
+  <si>
+    <t>gloss.txt</t>
+  </si>
+  <si>
     <t>* Identify a static IP address for the Foo and set DNS on your network to resolve Foo to the static Foo IP address</t>
   </si>
   <si>
@@ -79,10 +88,10 @@
     <t>"." not found in the source</t>
   </si>
   <si>
-    <t>sample text for unsource function</t>
-  </si>
-  <si>
-    <t>"Foo Bar30" not found in the source</t>
+    <t>sample text for unsource function: Microsoft</t>
+  </si>
+  <si>
+    <t>"Mirosoft" not found in the source</t>
   </si>
   <si>
     <t>Deleted Tag</t>
@@ -103,9 +112,33 @@
     <t>Added Tag</t>
   </si>
   <si>
+    <t>Inconsistency: it is fine today.</t>
+  </si>
+  <si>
+    <t>I woke up at six in the morning.</t>
+  </si>
+  <si>
+    <t>woke up</t>
+  </si>
+  <si>
+    <t>wake up</t>
+  </si>
+  <si>
+    <t>"Inconsistency" not found in the source</t>
+  </si>
+  <si>
+    <t>I woke up at seven in the morning.</t>
+  </si>
+  <si>
+    <t>I woke up at eight in the morning.</t>
+  </si>
+  <si>
     <t>Inconsistent (source-&gt;target)</t>
   </si>
   <si>
+    <t>Inconsistent (target-&gt;source)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -301,6 +334,37 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t>データ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>センター</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t>装置の</t>
     </r>
     <r>
@@ -619,7 +683,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Foo Bar30</t>
+      <t>: Mirosoft</t>
     </r>
     <r>
       <rPr>
@@ -706,7 +770,98 @@
     </r>
   </si>
   <si>
-    <t>S</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本日は晴天です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>今日は晴天です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本日は青天です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>今日は青天です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>逆方向の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Inconsistency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>起きる</t>
+    </r>
+  </si>
+  <si>
+    <t>* Identify a 1u rack space for the unit in your data center (the unit is too loud to place in a regular work environment)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -767,7 +922,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +938,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +1025,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,22 +1340,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.75" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="50.625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
@@ -1220,9 +1401,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33.75" hidden="1">
+    <row r="2" spans="1:13" ht="33.75">
       <c r="A2" s="6" t="str">
-        <f t="shared" ref="A2:A17" si="0">HYPERLINK("C:/Users/Administrator/Desktop/hiatus/__sample/!b/ttx.ttx","ttx.ttx")</f>
+        <f t="shared" ref="A2:A37" si="0">HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1235,14 +1416,14 @@
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7">
         <v>91</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1250,7 +1431,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" hidden="1">
+    <row r="3" spans="1:13" ht="33.75">
       <c r="A3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1265,14 +1446,14 @@
         <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7">
         <v>91</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1280,7 +1461,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5" hidden="1">
+    <row r="4" spans="1:13" ht="22.5">
       <c r="A4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1289,28 +1470,34 @@
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F4" s="7">
         <v>100</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="22.5" hidden="1">
+    <row r="5" spans="1:13" ht="22.5">
       <c r="A5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1322,17 +1509,17 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7">
         <v>100</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1340,7 +1527,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="22.5" hidden="1">
+    <row r="6" spans="1:13" ht="22.5">
       <c r="A6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1352,17 +1539,17 @@
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7">
         <v>100</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1370,7 +1557,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="33.75" hidden="1">
+    <row r="7" spans="1:13" ht="22.5">
       <c r="A7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1382,17 +1569,17 @@
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1400,7 +1587,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="33.75" hidden="1">
+    <row r="8" spans="1:13" ht="33.75">
       <c r="A8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1412,17 +1599,17 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7">
         <v>90</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1430,7 +1617,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="33.75" hidden="1">
+    <row r="9" spans="1:13" ht="33.75">
       <c r="A9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1442,17 +1629,17 @@
         <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7">
         <v>90</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1469,20 +1656,20 @@
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7">
         <v>90</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1499,20 +1686,20 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7">
         <v>90</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1520,7 +1707,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="33.75">
       <c r="A12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1529,20 +1716,20 @@
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7">
         <v>90</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1558,14 +1745,14 @@
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
+      <c r="E13" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="7">
         <v>90</v>
@@ -1580,7 +1767,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1588,21 +1775,21 @@
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
+      <c r="C14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="7">
         <v>90</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1619,20 +1806,20 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7">
         <v>90</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1649,20 +1836,20 @@
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7">
         <v>90</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1670,7 +1857,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ttx.ttx</v>
@@ -1678,21 +1865,21 @@
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>42</v>
+      <c r="C17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="F17" s="7">
         <v>90</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1702,27 +1889,27 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6" t="str">
-        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/__sample/!b/ttx.ttx","ttx.ttx")</f>
+        <f t="shared" si="0"/>
         <v>ttx.ttx</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="7">
         <v>90</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1732,7 +1919,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6" t="str">
-        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/__sample/!b/ttx.ttx","ttx.ttx")</f>
+        <f t="shared" si="0"/>
         <v>ttx.ttx</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1741,18 +1928,18 @@
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>42</v>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F19" s="7">
         <v>90</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1760,23 +1947,566 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="7">
+        <v>90</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7">
+        <v>90</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7">
+        <v>90</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="7">
+        <v>90</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="7">
+        <v>90</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
     <row r="25" spans="1:13">
-      <c r="E25" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7">
+        <v>90</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="7">
+        <v>90</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7">
+        <v>90</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="7">
+        <v>90</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="7">
+        <v>90</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="7">
+        <v>90</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="7">
+        <v>90</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="7">
+        <v>90</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7">
+        <v>90</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="7">
+        <v>90</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="7">
+        <v>90</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="7">
+        <v>90</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="7">
+        <v>90</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M19">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Added Tag"/>
-        <filter val="Deleted Tag"/>
-        <filter val="Inconsistent (source-&gt;target)"/>
-        <filter val="Too short?"/>
-        <filter val="Unsourced"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M1"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/!Sample_files/report/120801_report.xlsx
+++ b/!Sample_files/report/120801_report.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="61">
   <si>
     <t>File</t>
   </si>
@@ -859,10 +859,6 @@
       </rPr>
       <t>起きる</t>
     </r>
-  </si>
-  <si>
-    <t>* Identify a 1u rack space for the unit in your data center (the unit is too loud to place in a regular work environment)</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -922,7 +918,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,12 +946,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,12 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1340,11 +1324,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1403,7 +1387,7 @@
     </row>
     <row r="2" spans="1:13" ht="33.75">
       <c r="A2" s="6" t="str">
-        <f t="shared" ref="A2:A37" si="0">HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1433,7 +1417,7 @@
     </row>
     <row r="3" spans="1:13" ht="33.75">
       <c r="A3" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1463,7 +1447,7 @@
     </row>
     <row r="4" spans="1:13" ht="22.5">
       <c r="A4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1499,7 +1483,7 @@
     </row>
     <row r="5" spans="1:13" ht="22.5">
       <c r="A5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1529,7 +1513,7 @@
     </row>
     <row r="6" spans="1:13" ht="22.5">
       <c r="A6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1559,7 +1543,7 @@
     </row>
     <row r="7" spans="1:13" ht="22.5">
       <c r="A7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1569,7 +1553,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>43</v>
@@ -1589,7 +1573,7 @@
     </row>
     <row r="8" spans="1:13" ht="33.75">
       <c r="A8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1619,7 +1603,7 @@
     </row>
     <row r="9" spans="1:13" ht="33.75">
       <c r="A9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1649,7 +1633,7 @@
     </row>
     <row r="10" spans="1:13" ht="33.75">
       <c r="A10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1679,7 +1663,7 @@
     </row>
     <row r="11" spans="1:13" ht="33.75">
       <c r="A11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1709,7 +1693,7 @@
     </row>
     <row r="12" spans="1:13" ht="33.75">
       <c r="A12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1739,19 +1723,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="7">
@@ -1769,19 +1753,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="7">
@@ -1799,7 +1783,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1829,7 +1813,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1859,19 +1843,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="7">
@@ -1889,7 +1873,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1919,7 +1903,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1949,7 +1933,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1979,7 +1963,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1992,7 +1976,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7">
         <v>90</v>
@@ -2009,7 +1993,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2022,7 +2006,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7">
         <v>90</v>
@@ -2039,63 +2023,57 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="7">
         <v>90</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="7">
         <v>90</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2105,63 +2083,57 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7">
         <v>90</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7">
         <v>90</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2171,53 +2143,47 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7">
         <v>90</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>59</v>
@@ -2227,37 +2193,43 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F29" s="7">
         <v>90</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2267,57 +2239,63 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F30" s="7">
         <v>90</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F31" s="7">
         <v>90</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2327,57 +2305,63 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F32" s="7">
         <v>90</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F33" s="7">
         <v>90</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2387,49 +2371,55 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F34" s="7">
         <v>90</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F35" s="7">
@@ -2437,7 +2427,7 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -2447,19 +2437,19 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F36" s="7">
@@ -2467,29 +2457,35 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
         <v>ttx.ttx</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="7">
@@ -2497,13 +2493,493 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="7">
+        <v>90</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="7">
+        <v>90</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="7">
+        <v>90</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="7">
+        <v>90</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="7">
+        <v>90</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="7">
+        <v>90</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="7">
+        <v>90</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="7">
+        <v>90</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="7">
+        <v>90</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="7">
+        <v>90</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="7">
+        <v>90</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="7">
+        <v>90</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="7">
+        <v>90</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7">
+        <v>90</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="7">
+        <v>90</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="6" t="str">
+        <f>HYPERLINK("C:/Users/Administrator/Desktop/hiatus/_sample/!bi/ttx.ttx","ttx.ttx")</f>
+        <v>ttx.ttx</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="7">
+        <v>90</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
